--- a/1_3_PSP_Sheet_이상우.xlsx
+++ b/1_3_PSP_Sheet_이상우.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOGANG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -1518,7 +1518,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 25</t>
+      <t xml:space="preserve"> 22</t>
     </r>
     <r>
       <rPr>
@@ -1556,41 +1556,24 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>추합</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Initial Data </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생성</t>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1613,7 +1596,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 27</t>
+      <t xml:space="preserve"> 24</t>
     </r>
     <r>
       <rPr>
@@ -1627,7 +1610,101 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Initial Data 생성</t>
+    <t>설문지 자료 토대로 Initial Data set 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>web1 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>web1 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2212,7 +2289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -2596,7 +2673,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="3">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="C22" s="3">
         <v>0.875</v>
@@ -2605,7 +2682,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="16">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>40</v>
@@ -2616,36 +2693,60 @@
         <v>41</v>
       </c>
       <c r="B23" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C23" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.78402777777777777</v>
       </c>
       <c r="D23" s="9">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E23" s="16">
-        <v>300</v>
+        <v>469</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>120</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.16388888888888889</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>236</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
